--- a/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-COOPERATIVAS.xlsx
+++ b/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-COOPERATIVAS.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\siglas-entidades-financieras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\SiglasEntidadesFinancieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F88A9-9B72-4FEA-81D8-450D287ECBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA245A2-FD4F-4D7A-B7D0-1809166863B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>SIGLA</t>
   </si>
@@ -36,7 +36,229 @@
     <t>CJN</t>
   </si>
   <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “Quillacollo” R.L.</t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “El Chorolque” R.L.</t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “San Mateo” R.L.</t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “San Carlos Borromeo” R.L.</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>CFA</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>CLY</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>CPX</t>
+  </si>
+  <si>
+    <t>CIH</t>
+  </si>
+  <si>
+    <t>CJP</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>CJO</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CJB</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CMM</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>CPG</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>CSN</t>
+  </si>
+  <si>
+    <t>CSQ</t>
+  </si>
+  <si>
+    <t>CLO</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>CEY</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>No encontrado</t>
+  </si>
+  <si>
+    <t>CQC</t>
+  </si>
+  <si>
     <t>Cooperativa de Ahorro y Crédito Abierta “Jesús Nazareno” R.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San Martín de Porres” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Fátima” R.L. </t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “San Pedro” R.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Loyola” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San Antonio” R.L. </t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “Pío” X R.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Inca Huasi” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San José de Punata” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Monseñor Félix Gainza” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Educadores Gran Chaco” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Comarapa” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Trinidad” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San Joaquín” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Magisterio Rural” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San José de Bermejo” Ltda. </t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “Catedral" R.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Asunción” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Catedral de Tarija” R.L. </t>
+  </si>
+  <si>
+    <t>Cooperativa de Ahorro y Crédito Abierta “San Roque” R.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Madre y Maestra” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “La Merced” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “CACEF” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Progreso” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “La Sagrada Familia” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Magisterio Rural de Chuquisaca” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Societaria “San Martín” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San Pedro de Aiquile” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “San Francisco Solano” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Societaria “Virgen de los Remedios” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “COOPROLE” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Solucredit San Silvestre” R.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperativa de Ahorro y Crédito Abierta “Cristo Rey Cochabamba” R.L. </t>
   </si>
 </sst>
 </file>
@@ -354,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +600,303 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
